--- a/LubanTools/DesignerConfigs/Datas/玩家配置表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/玩家配置表.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="11670"/>
+    <workbookView windowWidth="21555" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="玩家等级配置表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="玩家等级表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -90,7 +89,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +116,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,7 +267,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +306,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,12 +355,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,48 +602,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,97 +656,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1321,24 +1301,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
